--- a/va_facility_data_2025-02-20/Dayton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dayton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dayton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dayton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4830d488eaca4937999039b4cba680aa"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R308641c5db6f4a33a7f31b3270bfecbf"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rfc92ad52d7ca4eb88c00be5db7b5e505"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rfc3c0e73276241cbad32782acaf620b9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rabaa459d706d466ead120d1252bc458c"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbefe6a6ea13d44c9b8003133d1e38624"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R8be150abc82c495c9e540d00eaeff923"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R93eb15c128294601a03385ad1fd005b4"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc364e31ff3384673ad3eebe8f139aa84"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R736a8708e1244732b61a45faaf70fd05"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdc897264e731436aaf7c17db8fc0ef80"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R980b4320ddc84df19786e1c59d67b4d5"/>
   </x:sheets>
 </x:workbook>
 </file>
